--- a/tests/data/expected-obj-to-xlsx.xlsx
+++ b/tests/data/expected-obj-to-xlsx.xlsx
@@ -1,91 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test-builtins" sheetId="1" r:id="rId1"/>
-    <sheet name="test-series" sheetId="2" r:id="rId2"/>
-    <sheet name="test-dataframe" sheetId="3" r:id="rId3"/>
-    <sheet name="test-mapping" sheetId="4" r:id="rId4"/>
-    <sheet name="test-iterable" sheetId="5" r:id="rId5"/>
-    <sheet name="test-custom" sheetId="6" r:id="rId6"/>
-    <sheet name="test-function" sheetId="7" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-builtins" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-series" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-dataframe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-mapping" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-iterable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-custom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-function" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
-  <si>
-    <t>test-bool</t>
-  </si>
-  <si>
-    <t>test-str</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>test-int</t>
-  </si>
-  <si>
-    <t>test-float</t>
-  </si>
-  <si>
-    <t>test-date</t>
-  </si>
-  <si>
-    <t>test-datetime</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>letters</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>('tuple', 'key')</t>
-  </si>
-  <si>
-    <t>callable: tests.test_to_xlsx.test_obj_to_xlsx.&lt;locals&gt;.test_func</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,13 +55,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -398,395 +351,512 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1.23456789</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test-bool</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test-str</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test-int</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test-float</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>test-date</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test-datetime</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>43465.04236111111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>11</v>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>('tuple', 'key')</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4">
+    <row r="2">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
+    <row r="7">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13">
+    <row r="11">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>numbers</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>letters</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>callable: tests.test_to_xlsx.test_obj_to_xlsx.&lt;locals&gt;.test_func</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/expected-obj-to-xlsx.xlsx
+++ b/tests/data/expected-obj-to-xlsx.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-builtins" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-series" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-dataframe" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-mapping" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-iterable" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-custom" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test-function" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="test-builtins" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test-series" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test-dataframe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test-mapping" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="test-iterable" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="test-custom" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="test-function" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -404,6 +404,9 @@
           <t>test-float</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>1.23456789</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
